--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humbe\OneDrive\Área de Trabalho\SENAC\Senac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FA48F23-E3AF-4660-8B7B-9E944EEC544A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E34E05A-41D6-4669-90BA-B620ED34A161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5BF0A20-4C4F-4D02-AB09-565841350E04}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="3" xr2:uid="{E5BF0A20-4C4F-4D02-AB09-565841350E04}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="PESSOAS" sheetId="1" r:id="rId1"/>
+    <sheet name="SERVIÇOS" sheetId="2" r:id="rId2"/>
+    <sheet name="AULAS " sheetId="3" r:id="rId3"/>
+    <sheet name="EXAME MÉDICO " sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="237">
   <si>
     <t xml:space="preserve">NOME </t>
   </si>
@@ -559,6 +563,183 @@
   </si>
   <si>
     <t>199/02/08</t>
+  </si>
+  <si>
+    <t>TIPO DE SERVIÇO</t>
+  </si>
+  <si>
+    <t>PRIMEIRA HAB A</t>
+  </si>
+  <si>
+    <t>PRIMEIRA HAB B</t>
+  </si>
+  <si>
+    <t>PRIMEIRA HAB AB</t>
+  </si>
+  <si>
+    <t>ADIÇÃO A</t>
+  </si>
+  <si>
+    <t>ADIÇÃO B</t>
+  </si>
+  <si>
+    <t>MUDANÇA C</t>
+  </si>
+  <si>
+    <t>MUDANÇA D</t>
+  </si>
+  <si>
+    <t>MUDANÇA E</t>
+  </si>
+  <si>
+    <t>ID VENDAS</t>
+  </si>
+  <si>
+    <t>ID SERVIÇOS</t>
+  </si>
+  <si>
+    <t>ID SERVIÇO</t>
+  </si>
+  <si>
+    <t>QUANTIDADE VENDA</t>
+  </si>
+  <si>
+    <t>DATA VENDA</t>
+  </si>
+  <si>
+    <t>ID CLIENTE</t>
+  </si>
+  <si>
+    <t>ID ATENDENTE</t>
+  </si>
+  <si>
+    <t>ID DIRETORES</t>
+  </si>
+  <si>
+    <t>id cliente</t>
+  </si>
+  <si>
+    <t>tipo do serviço</t>
+  </si>
+  <si>
+    <t>categoria a</t>
+  </si>
+  <si>
+    <t>categoria b</t>
+  </si>
+  <si>
+    <t>categoria ab</t>
+  </si>
+  <si>
+    <t>adição a</t>
+  </si>
+  <si>
+    <t>adição b</t>
+  </si>
+  <si>
+    <t>mudança c</t>
+  </si>
+  <si>
+    <t>mudança d</t>
+  </si>
+  <si>
+    <t>mudança e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID AULA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA </t>
+  </si>
+  <si>
+    <t>HORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID ALUNO </t>
+  </si>
+  <si>
+    <t>ID INSTRUTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATEGORIA </t>
+  </si>
+  <si>
+    <t>ID CATEGORIA</t>
+  </si>
+  <si>
+    <t>TIPO CATEGORIA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOME MEDICO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENDEREÇO MEDICO </t>
+  </si>
+  <si>
+    <t>Raul Igor Bernardo Fogaça</t>
+  </si>
+  <si>
+    <t>Mirella Patrícia de Paula</t>
+  </si>
+  <si>
+    <t>Kaique Márcio Julio Moreira</t>
+  </si>
+  <si>
+    <t>Rua Severino Pereira da Silva, 251</t>
+  </si>
+  <si>
+    <t>Quadra 25, 235</t>
+  </si>
+  <si>
+    <t>Rua Sete, 869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID EXAME MEDICO </t>
+  </si>
+  <si>
+    <t>DATA EXAME</t>
+  </si>
+  <si>
+    <t>RENACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID CLIENTE </t>
+  </si>
+  <si>
+    <t>ID EXAME PSICOTECNICO</t>
+  </si>
+  <si>
+    <t>Thiago Cauê Nascimento</t>
+  </si>
+  <si>
+    <t>Rua Quadra 5 MC, 177</t>
+  </si>
+  <si>
+    <t>Letícia Priscila Nogueira</t>
+  </si>
+  <si>
+    <t>Rua Triunfo, 751</t>
+  </si>
+  <si>
+    <t>Emily Fernanda Caroline Lima</t>
+  </si>
+  <si>
+    <t>Rua Aldery de Paula Damasceno, 716</t>
   </si>
 </sst>
 </file>
@@ -611,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -622,6 +803,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -939,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B0C861-16A5-4735-B958-45AF8C8B9D46}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:L17"/>
     </sheetView>
   </sheetViews>
@@ -1844,4 +2027,1907 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFC6F8A-78B9-480C-A341-12BEEADBF846}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44943</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44970</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44990</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45022</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45065</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45098</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>37417</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45062</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45046</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44996</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44966</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE15EBD2-584D-448E-8EF9-5F458543147E}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44941</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44941</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44942</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>215</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44942</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>216</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44943</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44943</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44944</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44944</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>216</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44945</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>217</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44945</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>217</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44946</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44946</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>49</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44947</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44947</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44948</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44948</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44949</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>54</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44949</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44950</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>56</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44950</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>57</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44951</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>58</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44951</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>59</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44952</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>60</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44952</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>61</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44953</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>62</v>
+      </c>
+      <c r="B27" s="4">
+        <v>44953</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>63</v>
+      </c>
+      <c r="B28" s="4">
+        <v>44954</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>64</v>
+      </c>
+      <c r="B29" s="4">
+        <v>44954</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>65</v>
+      </c>
+      <c r="B30" s="4">
+        <v>44955</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4">
+        <v>44955</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>67</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44956</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>68</v>
+      </c>
+      <c r="B33" s="4">
+        <v>44956</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>69</v>
+      </c>
+      <c r="B34" s="4">
+        <v>44957</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>70</v>
+      </c>
+      <c r="B35" s="4">
+        <v>44957</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>71</v>
+      </c>
+      <c r="B36" s="4">
+        <v>44958</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>72</v>
+      </c>
+      <c r="B37" s="4">
+        <v>44958</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A26D141-BD97-4399-BED8-FF87157D1E2C}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>44932</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7">
+        <v>942995</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>44964</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8">
+        <v>714424</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>44993</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9">
+        <v>680781</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>45025</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10">
+        <v>262492</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>45056</v>
+      </c>
+      <c r="C11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11">
+        <v>676981</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>45088</v>
+      </c>
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12">
+        <v>541445</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>45089</v>
+      </c>
+      <c r="C13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13">
+        <v>323442</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>45059</v>
+      </c>
+      <c r="C14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14">
+        <v>827602</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>45030</v>
+      </c>
+      <c r="C15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15">
+        <v>385392</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>45000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16">
+        <v>813854</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>44973</v>
+      </c>
+      <c r="C17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17">
+        <v>934642</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>44932</v>
+      </c>
+      <c r="C20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20">
+        <v>942995</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>44964</v>
+      </c>
+      <c r="C21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21">
+        <v>714424</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>44993</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22">
+        <v>680781</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>45025</v>
+      </c>
+      <c r="C23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23">
+        <v>262492</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>45056</v>
+      </c>
+      <c r="C24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24">
+        <v>676981</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>45088</v>
+      </c>
+      <c r="C25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25">
+        <v>541445</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>45089</v>
+      </c>
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26">
+        <v>323442</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>45059</v>
+      </c>
+      <c r="C27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27">
+        <v>827602</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>45030</v>
+      </c>
+      <c r="C28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28">
+        <v>385392</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>45000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29">
+        <v>813854</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>44973</v>
+      </c>
+      <c r="C30" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30">
+        <v>934642</v>
+      </c>
+      <c r="F30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313342F2-95F4-49A9-8CD9-411833437656}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>